--- a/biology/Médecine/Société_de_médecine_de_Paris/Société_de_médecine_de_Paris.xlsx
+++ b/biology/Médecine/Société_de_médecine_de_Paris/Société_de_médecine_de_Paris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_de_m%C3%A9decine_de_Paris</t>
+          <t>Société_de_médecine_de_Paris</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Société de médecine de Paris est une société médicale indépendante, pluridisciplinaire (ouvertes aux enseignants, médecins hospitaliers ou praticiens, généralistes ou spécialistes, chirurgiens, biologistes, et vétérinaires) et à vocation de formation médicale continue. Durant les séances qu'elle tient, chacun peut librement s'exprimer, et des spécialistes et conférenciers sont amenés à faire des exposés de l'état des connaissances dans leurs domaines.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_de_m%C3%A9decine_de_Paris</t>
+          <t>Société_de_médecine_de_Paris</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'association actuelle, reconnue d'utilité publique par le décret du 5 février 1878, est l'héritière de la Société de médecine de Paris fondée, le 2 germinal an IV (22 mars 1796), elle-même issue de la Société royale de médecine fondée en 1735 et dissoute à la Révolution française.
-Après la Terreur, quelques hommes décidèrent de former une nouvelle Société[1] ; à la sollicitation de Sédillot[2], le ministre les assura de son approbation, et le 29 ventôse an IV (19 mars 1796) la municipalité du IV arrondissement émit également un avis favorable. 
-Le 2 germinal an IV (22 mars 1796), la « Société de santé de Paris » ouvrit sa première séance dans une des salles du Lycée des Arts, au Palais-Égalité, ci-devant Royal ; trente-trois assistants signèrent le procès-verbal, et parmi eux les députés Antoine-François Fourcroy et René-François Plaichard Choltière, anciens membres du Comité d'instruction publique de la Convention ; Noël-Gabriel-Luce Villar, l'accoucheur Baudelocque, Chaussier, Cadet-Devaux, Antoine Dubois, Desgenettes, Heurteloup, Halle, Portai, Sabatier, Vauquelin. L'Assemblée qui, prit le 27 pluviôse an V (15 février 1797) le nom de « Société de médecine de Paris », était organisée sur le plan de l'ancienne Société Royale : elle se réunissait tous les dix jours et tenait séance publique deux fois par an ; son bureau organisa des concours, décerna des prix et établit un service de consultations gratuites l'après-midi de chaque décade ; il publia aussi un bulletin et des mémoires[3].
+Après la Terreur, quelques hommes décidèrent de former une nouvelle Société ; à la sollicitation de Sédillot, le ministre les assura de son approbation, et le 29 ventôse an IV (19 mars 1796) la municipalité du IV arrondissement émit également un avis favorable. 
+Le 2 germinal an IV (22 mars 1796), la « Société de santé de Paris » ouvrit sa première séance dans une des salles du Lycée des Arts, au Palais-Égalité, ci-devant Royal ; trente-trois assistants signèrent le procès-verbal, et parmi eux les députés Antoine-François Fourcroy et René-François Plaichard Choltière, anciens membres du Comité d'instruction publique de la Convention ; Noël-Gabriel-Luce Villar, l'accoucheur Baudelocque, Chaussier, Cadet-Devaux, Antoine Dubois, Desgenettes, Heurteloup, Halle, Portai, Sabatier, Vauquelin. L'Assemblée qui, prit le 27 pluviôse an V (15 février 1797) le nom de « Société de médecine de Paris », était organisée sur le plan de l'ancienne Société Royale : elle se réunissait tous les dix jours et tenait séance publique deux fois par an ; son bureau organisa des concours, décerna des prix et établit un service de consultations gratuites l'après-midi de chaque décade ; il publia aussi un bulletin et des mémoires.
 </t>
         </is>
       </c>
